--- a/writeup/results/parse-ordering.xlsx
+++ b/writeup/results/parse-ordering.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -422,9 +422,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
@@ -433,7 +434,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9199101" cy="5610847"/>
+    <xdr:ext cx="9185661" cy="5610847"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -961,7 +962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
